--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -4335,7 +4335,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-diagnosticreport-labresult.xlsx
@@ -4335,7 +4335,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
